--- a/teaching/traditional_assets/database/data/taiwan/taiwan_reinsurance.xlsx
+++ b/teaching/traditional_assets/database/data/taiwan/taiwan_reinsurance.xlsx
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.00247</v>
+        <v>0.0434</v>
       </c>
       <c r="E2">
-        <v>0.0998</v>
+        <v>0.161</v>
       </c>
       <c r="G2">
-        <v>0.07909827961241843</v>
+        <v>0.09561817885649129</v>
       </c>
       <c r="H2">
-        <v>0.07909827961241843</v>
+        <v>0.09561817885649129</v>
       </c>
       <c r="I2">
-        <v>0.09195175004943643</v>
+        <v>0.1425313568985177</v>
       </c>
       <c r="J2">
-        <v>0.07099614493011497</v>
+        <v>0.1142898496492758</v>
       </c>
       <c r="K2">
-        <v>39.3</v>
+        <v>51.9</v>
       </c>
       <c r="L2">
-        <v>0.0777140597192011</v>
+        <v>0.08454145626323506</v>
       </c>
       <c r="M2">
-        <v>17.1</v>
+        <v>18.4</v>
       </c>
       <c r="N2">
-        <v>0.04365585907582334</v>
+        <v>0.03857442348008385</v>
       </c>
       <c r="O2">
-        <v>0.435114503816794</v>
+        <v>0.3545279383429673</v>
       </c>
       <c r="P2">
-        <v>17.1</v>
+        <v>18.4</v>
       </c>
       <c r="Q2">
-        <v>0.04365585907582334</v>
+        <v>0.03857442348008385</v>
       </c>
       <c r="R2">
-        <v>0.435114503816794</v>
+        <v>0.3545279383429673</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,55 +639,55 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>445</v>
+        <v>592.1</v>
       </c>
       <c r="V2">
-        <v>1.136073525657391</v>
+        <v>1.241299790356394</v>
       </c>
       <c r="W2">
-        <v>0.1059870550161812</v>
+        <v>0.1361847284177381</v>
       </c>
       <c r="X2">
-        <v>0.07252122905603126</v>
+        <v>0.07573001268223215</v>
       </c>
       <c r="Y2">
-        <v>0.03346582596014996</v>
+        <v>0.06045471573550598</v>
       </c>
       <c r="Z2">
-        <v>-4.224728487886383</v>
+        <v>-9.610507529979024</v>
       </c>
       <c r="AA2">
-        <v>-0.2999394360163671</v>
+        <v>-1.098383460654536</v>
       </c>
       <c r="AB2">
-        <v>0.07251865018222986</v>
+        <v>0.07572824868933122</v>
       </c>
       <c r="AC2">
-        <v>-0.372458086198597</v>
+        <v>-1.174111709343867</v>
       </c>
       <c r="AD2">
-        <v>0.022</v>
+        <v>0.015</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.022</v>
+        <v>0.015</v>
       </c>
       <c r="AG2">
-        <v>-444.978</v>
+        <v>-592.085</v>
       </c>
       <c r="AH2">
-        <v>5.616227835046283e-05</v>
+        <v>3.144555202666583e-05</v>
       </c>
       <c r="AI2">
-        <v>5.772429825620142e-05</v>
+        <v>3.446572383764347e-05</v>
       </c>
       <c r="AJ2">
-        <v>8.352002702804157</v>
+        <v>5.144762566798452</v>
       </c>
       <c r="AK2">
-        <v>6.96606030245155</v>
+        <v>3.774006437836631</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -696,10 +696,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.0004690831556503198</v>
+        <v>0.0001706484641638225</v>
       </c>
       <c r="AP2">
-        <v>-9.487803837953091</v>
+        <v>-6.73589306029579</v>
       </c>
     </row>
     <row r="3">
@@ -719,46 +719,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.00247</v>
+        <v>0.0434</v>
       </c>
       <c r="E3">
-        <v>0.0998</v>
+        <v>0.161</v>
       </c>
       <c r="G3">
-        <v>0.07909827961241843</v>
+        <v>0.09561817885649129</v>
       </c>
       <c r="H3">
-        <v>0.07909827961241843</v>
+        <v>0.09561817885649129</v>
       </c>
       <c r="I3">
-        <v>0.09195175004943643</v>
+        <v>0.1425313568985177</v>
       </c>
       <c r="J3">
-        <v>0.07099614493011497</v>
+        <v>0.1142898496492758</v>
       </c>
       <c r="K3">
-        <v>39.3</v>
+        <v>51.9</v>
       </c>
       <c r="L3">
-        <v>0.0777140597192011</v>
+        <v>0.08454145626323506</v>
       </c>
       <c r="M3">
-        <v>17.1</v>
+        <v>18.4</v>
       </c>
       <c r="N3">
-        <v>0.04365585907582334</v>
+        <v>0.03857442348008385</v>
       </c>
       <c r="O3">
-        <v>0.435114503816794</v>
+        <v>0.3545279383429673</v>
       </c>
       <c r="P3">
-        <v>17.1</v>
+        <v>18.4</v>
       </c>
       <c r="Q3">
-        <v>0.04365585907582334</v>
+        <v>0.03857442348008385</v>
       </c>
       <c r="R3">
-        <v>0.435114503816794</v>
+        <v>0.3545279383429673</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -767,55 +767,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>445</v>
+        <v>592.1</v>
       </c>
       <c r="V3">
-        <v>1.136073525657391</v>
+        <v>1.241299790356394</v>
       </c>
       <c r="W3">
-        <v>0.1059870550161812</v>
+        <v>0.1361847284177381</v>
       </c>
       <c r="X3">
-        <v>0.07252122905603126</v>
+        <v>0.07573001268223215</v>
       </c>
       <c r="Y3">
-        <v>0.03346582596014996</v>
+        <v>0.06045471573550598</v>
       </c>
       <c r="Z3">
-        <v>-4.224728487886383</v>
+        <v>-9.610507529979024</v>
       </c>
       <c r="AA3">
-        <v>-0.2999394360163671</v>
+        <v>-1.098383460654536</v>
       </c>
       <c r="AB3">
-        <v>0.07251865018222986</v>
+        <v>0.07572824868933122</v>
       </c>
       <c r="AC3">
-        <v>-0.372458086198597</v>
+        <v>-1.174111709343867</v>
       </c>
       <c r="AD3">
-        <v>0.022</v>
+        <v>0.015</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.022</v>
+        <v>0.015</v>
       </c>
       <c r="AG3">
-        <v>-444.978</v>
+        <v>-592.085</v>
       </c>
       <c r="AH3">
-        <v>5.616227835046283e-05</v>
+        <v>3.144555202666583e-05</v>
       </c>
       <c r="AI3">
-        <v>5.772429825620142e-05</v>
+        <v>3.446572383764347e-05</v>
       </c>
       <c r="AJ3">
-        <v>8.352002702804157</v>
+        <v>5.144762566798452</v>
       </c>
       <c r="AK3">
-        <v>6.96606030245155</v>
+        <v>3.774006437836631</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.0004690831556503198</v>
+        <v>0.0001706484641638225</v>
       </c>
       <c r="AP3">
-        <v>-9.487803837953091</v>
+        <v>-6.73589306029579</v>
       </c>
     </row>
   </sheetData>
